--- a/读取xmind/ExcelCase/TCT历史执行记录迁移.xlsx
+++ b/读取xmind/ExcelCase/TCT历史执行记录迁移.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -541,7 +541,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -647,7 +647,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -702,7 +702,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -806,7 +806,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -858,7 +858,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -962,7 +962,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1018,7 +1018,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1071,7 +1071,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1124,7 +1124,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1181,7 +1181,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1285,7 +1285,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1394,7 +1394,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1447,7 +1447,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1501,7 +1501,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1553,7 +1553,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1657,7 +1657,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1709,7 +1709,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1813,7 +1813,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1865,7 +1865,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1970,7 +1970,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2023,7 +2023,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2076,7 +2076,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Redis故障切换</t>
+          <t>['TCT历史执行记录迁移', '']</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1024593</t>
+          <t>1024029</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">

--- a/读取xmind/ExcelCase/TCT历史执行记录迁移.xlsx
+++ b/读取xmind/ExcelCase/TCT历史执行记录迁移.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -541,7 +541,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -647,7 +647,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -702,7 +702,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -806,7 +806,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -858,7 +858,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -962,7 +962,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1018,7 +1018,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1071,7 +1071,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1124,7 +1124,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1181,7 +1181,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1285,7 +1285,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1394,7 +1394,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1447,7 +1447,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1501,7 +1501,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1553,7 +1553,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1657,7 +1657,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1709,7 +1709,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1813,7 +1813,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1865,7 +1865,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1917,7 +1917,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1970,7 +1970,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2023,7 +2023,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2076,7 +2076,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>['TCT历史执行记录迁移', '']</t>
+          <t>TCT历史执行记录迁移</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
